--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58421.73650442925</v>
+        <v>58421.7365044293</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26528,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-88631.05936605774</v>
+        <v>-88631.05936605769</v>
       </c>
       <c r="F6" t="n">
         <v>44468.94063394231</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58421.7365044293</v>
+        <v>72148.09464184743</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-88631.05936605769</v>
+        <v>-88631.05936605774</v>
       </c>
       <c r="F6" t="n">
         <v>44468.94063394231</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>72148.09464184743</v>
+        <v>-85604.20096153535</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>12707831.60028909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>26983464.22451482</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1119842.739261997</v>
+        <v>1551917.656193817</v>
       </c>
     </row>
     <row r="11">
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8151,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8847,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -9339,10 +9339,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>215.5855378141321</v>
@@ -22728,13 +22728,13 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
@@ -22743,13 +22743,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>129.0132581705354</v>
@@ -23223,7 +23223,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23284,7 +23284,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>130.6648563030561</v>
@@ -23439,10 +23439,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>90.4687457914608</v>
@@ -23460,7 +23460,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
         <v>163.8605191622716</v>
@@ -23518,7 +23518,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>135.370731907559</v>
@@ -23539,10 +23539,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23597,7 +23597,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>80.29914934735042</v>
@@ -23679,7 +23679,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>90.4687457914608</v>
@@ -23755,7 +23755,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>135.370731907559</v>
@@ -23776,10 +23776,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23834,7 +23834,7 @@
         <v>87.25340171355576</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>80.29914934735042</v>
@@ -23858,7 +23858,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -23913,10 +23913,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>90.4687457914608</v>
@@ -23931,10 +23931,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
         <v>163.8605191622716</v>
@@ -24013,10 +24013,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24250,10 +24250,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24305,10 +24305,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>80.29914934735042</v>
@@ -24332,7 +24332,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24387,7 +24387,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>94.30397654773019</v>
@@ -24408,7 +24408,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24542,7 +24542,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
@@ -24624,7 +24624,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>94.30397654773019</v>
@@ -24645,7 +24645,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
         <v>163.8605191622716</v>
@@ -24706,7 +24706,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>130.6648563030561</v>
@@ -24724,10 +24724,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
         <v>193.8433399116564</v>
@@ -24940,7 +24940,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>135.370731907559</v>
@@ -24961,10 +24961,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
         <v>193.8433399116564</v>
@@ -25101,7 +25101,7 @@
         <v>105.873818686614</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>90.4687457914608</v>
@@ -25335,10 +25335,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>90.4687457914608</v>
@@ -25356,7 +25356,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
         <v>163.8605191622716</v>
@@ -25414,7 +25414,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>135.370731907559</v>
@@ -25572,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25651,7 +25651,7 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>135.370731907559</v>
@@ -25675,7 +25675,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
         <v>193.8433399116564</v>
@@ -25754,7 +25754,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25991,7 +25991,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26046,7 +26046,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>94.30397654773019</v>
@@ -26067,7 +26067,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.813003660179674e-12</v>
+        <v>56157.39872866776</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-8.813003660179674e-12</v>
+        <v>13677.63592012166</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.813003660179674e-12</v>
+        <v>43499.57190143183</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>129058.3257729727</v>
+        <v>156418.7197923652</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>129058.3257729727</v>
+        <v>188213.8152759524</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>129058.3257729727</v>
+        <v>200184.2620833204</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>129058.3257729727</v>
+        <v>159591.1506331196</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>129058.3257729727</v>
+        <v>175007.7094369373</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>129058.3257729727</v>
+        <v>134036.9034106155</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>129058.3257729727</v>
+        <v>178717.6813443385</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>129058.3257729727</v>
+        <v>181201.7949797772</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129058.3257729727</v>
+        <v>137292.1890811463</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129058.3257729727</v>
+        <v>174581.9377853165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129058.3257729727</v>
+        <v>159362.6545525509</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129058.3257729727</v>
+        <v>136700.800550213</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15028.03627950264</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3660.212429328336</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11640.73050883387</v>
       </c>
       <c r="E2" t="n">
-        <v>48080.55273895063</v>
+        <v>55402.34832160496</v>
       </c>
       <c r="F2" t="n">
-        <v>48080.55273895063</v>
+        <v>63910.8950003114</v>
       </c>
       <c r="G2" t="n">
-        <v>48080.55273895063</v>
+        <v>67114.25400510001</v>
       </c>
       <c r="H2" t="n">
-        <v>48080.55273895063</v>
+        <v>56251.3086874406</v>
       </c>
       <c r="I2" t="n">
-        <v>48080.55273895063</v>
+        <v>60376.86667719468</v>
       </c>
       <c r="J2" t="n">
-        <v>48080.55273895063</v>
+        <v>49412.84816310854</v>
       </c>
       <c r="K2" t="n">
-        <v>48080.55273895063</v>
+        <v>61369.67606086541</v>
       </c>
       <c r="L2" t="n">
-        <v>48080.55273895063</v>
+        <v>62034.43886471524</v>
       </c>
       <c r="M2" t="n">
-        <v>48080.55273895063</v>
+        <v>50283.98094818016</v>
       </c>
       <c r="N2" t="n">
-        <v>48080.55273895063</v>
+        <v>60262.9277845074</v>
       </c>
       <c r="O2" t="n">
-        <v>48080.55273895063</v>
+        <v>56190.1618489786</v>
       </c>
       <c r="P2" t="n">
-        <v>48080.55273895063</v>
+        <v>50125.72204553604</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15818.9855573712</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3852.855188766669</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12253.4005356146</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>7707.153244899311</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>16663.51816985345</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20035.47501699934</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8600.795735252617</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12943.48835604638</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1402.416235955698</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13988.55086517347</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14688.30118501538</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2319.398114978459</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>12823.55267953345</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8536.430642134706</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2152.809796405699</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660709</v>
       </c>
       <c r="E6" t="n">
-        <v>-88631.05936605774</v>
+        <v>-106626.5482053516</v>
       </c>
       <c r="F6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="G6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.45179464842</v>
       </c>
       <c r="H6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="I6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="J6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="K6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="L6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="M6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
       <c r="N6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.45179464841</v>
       </c>
       <c r="O6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.45179464841</v>
       </c>
       <c r="P6" t="n">
-        <v>44468.94063394231</v>
+        <v>26473.4517946484</v>
       </c>
     </row>
   </sheetData>
